--- a/downloaded_files/CMPS346_Tutorial-35872.xlsx
+++ b/downloaded_files/CMPS346_Tutorial-35872.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,15 +58,6 @@
   </x:si>
   <x:si>
     <x:t>Amir</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>انس علاء محمد ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Anas Alaa Mohamed  Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1230040</x:t>
@@ -254,7 +245,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -554,7 +545,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T13"/>
+  <x:dimension ref="A1:T12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -741,7 +732,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.4854640046</x:v>
+        <x:v>45909.4706523958</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -773,7 +764,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.4706523958</x:v>
+        <x:v>45909.4149015393</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -805,7 +796,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.4149015393</x:v>
+        <x:v>45909.6638215278</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -837,7 +828,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.6638215278</x:v>
+        <x:v>45909.4150782755</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -869,7 +860,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.4150782755</x:v>
+        <x:v>45909.4151179745</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -901,7 +892,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4151179745</x:v>
+        <x:v>45909.4149064468</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -933,7 +924,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4149064468</x:v>
+        <x:v>45909.5377995023</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -965,7 +956,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.5377995023</x:v>
+        <x:v>45909.4148714931</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -982,38 +973,6 @@
       <x:c r="R12" s="2" t="s"/>
       <x:c r="S12" s="2" t="s"/>
       <x:c r="T12" s="2" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:20">
-      <x:c r="A13" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B13" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C13" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E13" s="3">
-        <x:v>45909.4148714931</x:v>
-      </x:c>
-      <x:c r="F13" s="2" t="s"/>
-      <x:c r="G13" s="2" t="s"/>
-      <x:c r="H13" s="2" t="s"/>
-      <x:c r="I13" s="2" t="s"/>
-      <x:c r="J13" s="2" t="s"/>
-      <x:c r="K13" s="2" t="s"/>
-      <x:c r="L13" s="2" t="s"/>
-      <x:c r="M13" s="2" t="s"/>
-      <x:c r="N13" s="2" t="s"/>
-      <x:c r="O13" s="2" t="s"/>
-      <x:c r="P13" s="2" t="s"/>
-      <x:c r="Q13" s="2" t="s"/>
-      <x:c r="R13" s="2" t="s"/>
-      <x:c r="S13" s="2" t="s"/>
-      <x:c r="T13" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS346_Tutorial-35872.xlsx
+++ b/downloaded_files/CMPS346_Tutorial-35872.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>Nada Abdallah Mahmoud el said</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210420</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نوران شمس الدين محمد علوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nouran Shams Eldeen</x:t>
   </x:si>
   <x:si>
     <x:t>1220289</x:t>
@@ -245,7 +254,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -545,7 +554,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T12"/>
+  <x:dimension ref="A1:T13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -860,7 +869,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.4151179745</x:v>
+        <x:v>45928.5846795949</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -892,7 +901,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4149064468</x:v>
+        <x:v>45909.4151179745</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -924,7 +933,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.5377995023</x:v>
+        <x:v>45909.4149064468</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -956,7 +965,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4148714931</x:v>
+        <x:v>45909.5377995023</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -973,6 +982,38 @@
       <x:c r="R12" s="2" t="s"/>
       <x:c r="S12" s="2" t="s"/>
       <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45909.4148714931</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS346_Tutorial-35872.xlsx
+++ b/downloaded_files/CMPS346_Tutorial-35872.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,15 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Ziad abdelraouf hassan aboelhaded</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230053</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد محمد صلاح الدين علي رجب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1230055</x:t>
@@ -254,7 +245,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -554,7 +545,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T13"/>
+  <x:dimension ref="A1:T12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -562,8 +553,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="33.730625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="42.030625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.060625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="38.240625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -773,7 +764,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.4149015393</x:v>
+        <x:v>45909.6638215278</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -805,7 +796,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.6638215278</x:v>
+        <x:v>45909.4150782755</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -837,7 +828,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4150782755</x:v>
+        <x:v>45928.5846795949</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -869,7 +860,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45928.5846795949</x:v>
+        <x:v>45909.4151179745</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -901,7 +892,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4151179745</x:v>
+        <x:v>45909.4149064468</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -933,7 +924,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4149064468</x:v>
+        <x:v>45909.5377995023</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -965,7 +956,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.5377995023</x:v>
+        <x:v>45909.4148714931</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -982,38 +973,6 @@
       <x:c r="R12" s="2" t="s"/>
       <x:c r="S12" s="2" t="s"/>
       <x:c r="T12" s="2" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:20">
-      <x:c r="A13" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B13" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C13" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E13" s="3">
-        <x:v>45909.4148714931</x:v>
-      </x:c>
-      <x:c r="F13" s="2" t="s"/>
-      <x:c r="G13" s="2" t="s"/>
-      <x:c r="H13" s="2" t="s"/>
-      <x:c r="I13" s="2" t="s"/>
-      <x:c r="J13" s="2" t="s"/>
-      <x:c r="K13" s="2" t="s"/>
-      <x:c r="L13" s="2" t="s"/>
-      <x:c r="M13" s="2" t="s"/>
-      <x:c r="N13" s="2" t="s"/>
-      <x:c r="O13" s="2" t="s"/>
-      <x:c r="P13" s="2" t="s"/>
-      <x:c r="Q13" s="2" t="s"/>
-      <x:c r="R13" s="2" t="s"/>
-      <x:c r="S13" s="2" t="s"/>
-      <x:c r="T13" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS346_Tutorial-35872.xlsx
+++ b/downloaded_files/CMPS346_Tutorial-35872.xlsx
@@ -75,7 +75,7 @@
     <x:t>عبدالرحمن خالد محمد فصيح</x:t>
   </x:si>
   <x:si>
-    <x:t>Abd Elrahman Khaled Mohamed</x:t>
+    <x:t>Abd Elrahman Khaled Mohamed Faseeh</x:t>
   </x:si>
   <x:si>
     <x:t>1210381</x:t>
@@ -120,7 +120,7 @@
     <x:t>يوسف كامل إسماعيل محمد كامل اسماعيل</x:t>
   </x:si>
   <x:si>
-    <x:t>Youssuf kamel ismail Mohammed</x:t>
+    <x:t>Youssef Kamel Ismail Mohamed Kamel Ismail</x:t>
   </x:si>
   <x:si>
     <x:t>1220299</x:t>
@@ -554,7 +554,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.060625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="38.240625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.120625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
